--- a/data/trans_camb/P29_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +526,18 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,52</t>
+          <t>-12,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-19,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,57</t>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-13,65</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,22</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,22</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-16,6</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 11,86</t>
+          <t>-14,23; 10,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 7,26</t>
+          <t>-15,95; 9,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 33,46</t>
+          <t>-24,95; -1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 9,07</t>
+          <t>0,72; 27,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 9,27</t>
+          <t>-34,01; -3,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 29,43</t>
+          <t>-9,9; 9,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,01</t>
+          <t>-8,71; 11,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 5,27</t>
+          <t>-6,91; 13,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 28,7</t>
+          <t>-8,71; 14,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-27,44; -1,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; 6,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 6,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 3,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 16,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-26,38; -7,08</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-9,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>-33,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,11%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-32,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-30,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-15,94%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>29,85%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-31,7%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 37,97</t>
+          <t>-32,56; 30,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 21,46</t>
+          <t>-35,49; 27,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 100,82</t>
+          <t>-56,25; -3,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 44,53</t>
+          <t>2,83; 143,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 42,68</t>
+          <t>-52,03; -6,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 134,62</t>
+          <t>-31,98; 48,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 17,74</t>
+          <t>-29,06; 49,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 19,02</t>
+          <t>-23,0; 68,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,4; 101,32</t>
+          <t>-25,44; 63,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,46; -4,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,68; 22,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,0; 23,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-35,93; 13,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 72,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-46,41; -14,61</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-15,69</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-12,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 8,49</t>
+          <t>-16,99; 8,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 7,93</t>
+          <t>-18,31; 8,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 16,54</t>
+          <t>-27,63; -1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 8,62</t>
+          <t>-2,02; 23,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 10,1</t>
+          <t>-22,0; 6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 27,94</t>
+          <t>-8,1; 8,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 6,29</t>
+          <t>-7,14; 10,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 6,39</t>
+          <t>-7,11; 11,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 19,23</t>
+          <t>-9,1; 10,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-26,11; -5,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 5,94</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 7,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; 2,14</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 14,41</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-21,22; -2,82</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>-35,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>-19,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-38,77%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-20,99%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-28,09%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 25,02</t>
+          <t>-34,19; 25,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 23,44</t>
+          <t>-38,11; 24,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 47,62</t>
+          <t>-59,44; -5,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 48,49</t>
+          <t>-6,52; 124,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 57,56</t>
+          <t>-42,15; 17,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 157,32</t>
+          <t>-31,26; 50,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 23,83</t>
+          <t>-26,44; 55,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 23,05</t>
+          <t>-28,23; 62,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 68,08</t>
+          <t>-31,38; 57,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-56,93; -16,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-27,56; 21,85</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-26,37; 28,09</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-41,98; 7,42</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 68,97</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-44,53; -7,22</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,67</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 1,32</t>
+          <t>-17,24; 0,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 1,47</t>
+          <t>-19,4; -0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 18,53</t>
+          <t>-18,48; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 9,13</t>
+          <t>-2,59; 18,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,86</t>
+          <t>-14,27; 5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 19,76</t>
+          <t>-3,49; 9,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,3</t>
+          <t>-2,68; 10,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,25</t>
+          <t>-4,76; 8,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 17,52</t>
+          <t>-3,5; 11,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-15,16; 0,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 2,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 2,64</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 3,53</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 13,78</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 0,49</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>-25,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>-25,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>-20,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-21,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-10,41%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-9,91%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-10,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>28,45%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-16,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 4,4</t>
+          <t>-41,63; 0,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 6,55</t>
+          <t>-45,61; -2,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 64,26</t>
+          <t>-43,26; 11,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 65,74</t>
+          <t>-8,29; 75,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 70,27</t>
+          <t>-31,44; 13,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,67; 133,74</t>
+          <t>-16,35; 70,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 15,28</t>
+          <t>-13,79; 70,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 18,99</t>
+          <t>-23,49; 62,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,1; 78,51</t>
+          <t>-14,45; 69,95</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; 4,05</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-27,45; 12,04</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-26,72; 11,22</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 14,59</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 67,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-32,85; 1,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,18</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,04</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,46</t>
+          <t>10,52</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-9,16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,01</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-9,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 7,73</t>
+          <t>-6,8; 7,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 12,38</t>
+          <t>-2,97; 13,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 27,85</t>
+          <t>-1,57; 16,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 10,28</t>
+          <t>-8,8; 10,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 12,72</t>
+          <t>-19,59; 0,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,66; 29,22</t>
+          <t>-2,72; 9,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 7,32</t>
+          <t>-0,01; 11,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,48</t>
+          <t>-3,74; 8,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,24; 26,7</t>
+          <t>3,38; 18,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; -0,67</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 6,73</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 10,34</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 9,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 12,2</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-16,9; -2,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>135,12%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>56,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-23,88%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-23,48%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 34,51</t>
+          <t>-22,49; 33,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 54,08</t>
+          <t>-10,17; 59,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,7; 126,77</t>
+          <t>-5,75; 68,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 79,89</t>
+          <t>-22,84; 34,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,59; 97,64</t>
+          <t>-39,26; 1,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,73; 213,18</t>
+          <t>-14,12; 65,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 39,83</t>
+          <t>-0,11; 88,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 57,47</t>
+          <t>-20,75; 64,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58,51; 141,52</t>
+          <t>13,64; 120,36</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-40,94; -1,67</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 35,68</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 54,94</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 53,46</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 52,81</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-37,42; -7,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,63</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-5,99</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5,22</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-7,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 13,92</t>
+          <t>-1,85; 14,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 19,51</t>
+          <t>3,5; 20,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,28; 27,92</t>
+          <t>-4,93; 12,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 6,78</t>
+          <t>-2,92; 15,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 7,59</t>
+          <t>-18,55; 1,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 20,3</t>
+          <t>-7,95; 7,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,29</t>
+          <t>-8,89; 6,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 11,9</t>
+          <t>-6,49; 10,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,47; 21,24</t>
+          <t>-4,35; 13,02</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 2,28</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 7,95</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 10,74</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 8,79</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 11,35</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; -0,35</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-19,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>65,62%</t>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-17,8%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-18,72%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 69,33</t>
+          <t>-6,26; 73,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,74; 94,36</t>
+          <t>12,7; 103,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>31,36; 137,11</t>
+          <t>-17,63; 59,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 38,3</t>
+          <t>-9,67; 67,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 45,56</t>
+          <t>-38,59; 4,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,84; 122,42</t>
+          <t>-31,84; 44,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 40,88</t>
+          <t>-33,42; 40,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 61,54</t>
+          <t>-26,3; 57,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>34,09; 105,17</t>
+          <t>-16,46; 68,2</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-39,33; 8,54</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; 39,89</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 53,1</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-16,11; 41,69</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 50,02</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-33,54; -0,86</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-7,71</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11,08</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-10,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 13,7</t>
+          <t>-7,5; 14,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 21,61</t>
+          <t>-1,71; 21,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,75; 30,11</t>
+          <t>-11,32; 11,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 20,05</t>
+          <t>-4,85; 18,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,16; 18,19</t>
+          <t>-26,05; -2,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,27; 26,38</t>
+          <t>-0,77; 16,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 13,8</t>
+          <t>1,49; 19,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,96; 16,32</t>
+          <t>-2,45; 19,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,79; 24,76</t>
+          <t>-13,2; 10,75</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 3,54</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 13,2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 17,75</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 12,96</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 10,98</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-18,31; -1,55</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>-27,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-21,11%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>44,94%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-24,08%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 54,24</t>
+          <t>-23,12; 65,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 89,74</t>
+          <t>-5,62; 91,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11,48; 117,94</t>
+          <t>-33,32; 52,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,81; 114,54</t>
+          <t>-15,18; 81,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,44; 102,56</t>
+          <t>-46,5; -4,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,4; 146,27</t>
+          <t>-3,75; 100,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 63,22</t>
+          <t>3,62; 110,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,39; 73,16</t>
+          <t>-11,13; 103,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>25,2; 108,97</t>
+          <t>-37,01; 46,7</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-45,45; 12,87</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 62,62</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 81,46</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 61,96</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 43,83</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-38,58; -3,15</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>14,2</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-9,46</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-9,99</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 3,34</t>
+          <t>-5,43; 2,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,47</t>
+          <t>-2,98; 5,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,04</t>
+          <t>-8,67; 0,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,26</t>
+          <t>2,76; 12,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,24</t>
+          <t>-15,58; -5,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,14</t>
+          <t>-0,56; 5,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,63</t>
+          <t>1,01; 7,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,63</t>
+          <t>-0,37; 6,59</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,36</t>
+          <t>-0,69; 7,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; -5,15</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,47</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 5,59</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 2,61</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 8,58</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; -6,9</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>-22,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-25,6%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-23,83%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 11,28</t>
+          <t>-15,16; 9,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 18,13</t>
+          <t>-8,54; 18,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>25,71; 62,6</t>
+          <t>-24,65; 2,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 32,7</t>
+          <t>8,55; 45,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,61; 39,2</t>
+          <t>-31,95; -12,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>55,72; 106,2</t>
+          <t>-2,51; 29,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 14,31</t>
+          <t>4,92; 38,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 22,52</t>
+          <t>-1,93; 34,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42,63; 73,35</t>
+          <t>-2,71; 34,17</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-35,59; -14,86</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 14,08</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 22,34</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-11,34; 10,35</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 34,42</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-30,07; -16,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
